--- a/Phenoloxidase Activity data/Data for 150 samples/12. Phenoloxidase 08-08-24 (HEG 32 - 38).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/12. Phenoloxidase 08-08-24 (HEG 32 - 38).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -764,6 +764,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -968,11 +969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241474104"/>
-        <c:axId val="241474488"/>
+        <c:axId val="248982776"/>
+        <c:axId val="247814752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241474104"/>
+        <c:axId val="248982776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,12 +1030,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241474488"/>
+        <c:crossAx val="247814752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241474488"/>
+        <c:axId val="247814752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241474104"/>
+        <c:crossAx val="248982776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,6 +1156,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1229,6 +1231,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1353,11 +1356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241819080"/>
-        <c:axId val="241833784"/>
+        <c:axId val="248059272"/>
+        <c:axId val="248059656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241819080"/>
+        <c:axId val="248059272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,12 +1417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241833784"/>
+        <c:crossAx val="248059656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241833784"/>
+        <c:axId val="248059656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241819080"/>
+        <c:crossAx val="248059272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1738,11 +1741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241883928"/>
-        <c:axId val="241884312"/>
+        <c:axId val="248450512"/>
+        <c:axId val="248450896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241883928"/>
+        <c:axId val="248450512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,12 +1802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241884312"/>
+        <c:crossAx val="248450896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241884312"/>
+        <c:axId val="248450896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241883928"/>
+        <c:crossAx val="248450512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2129,11 +2132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242728272"/>
-        <c:axId val="242757632"/>
+        <c:axId val="248523336"/>
+        <c:axId val="248523720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242728272"/>
+        <c:axId val="248523336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,12 +2193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242757632"/>
+        <c:crossAx val="248523720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242757632"/>
+        <c:axId val="248523720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242728272"/>
+        <c:crossAx val="248523336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2514,11 +2517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242219000"/>
-        <c:axId val="242219384"/>
+        <c:axId val="248553920"/>
+        <c:axId val="248554304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242219000"/>
+        <c:axId val="248553920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,12 +2578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242219384"/>
+        <c:crossAx val="248554304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242219384"/>
+        <c:axId val="248554304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242219000"/>
+        <c:crossAx val="248553920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2913,11 +2916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242165912"/>
-        <c:axId val="242164344"/>
+        <c:axId val="247429424"/>
+        <c:axId val="247428640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242165912"/>
+        <c:axId val="247429424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,12 +2977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242164344"/>
+        <c:crossAx val="247428640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242164344"/>
+        <c:axId val="247428640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,7 +3039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242165912"/>
+        <c:crossAx val="247429424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3318,11 +3321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242164736"/>
-        <c:axId val="242163952"/>
+        <c:axId val="247429032"/>
+        <c:axId val="247429816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242164736"/>
+        <c:axId val="247429032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,12 +3382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242163952"/>
+        <c:crossAx val="247429816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242163952"/>
+        <c:axId val="247429816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,7 +3444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242164736"/>
+        <c:crossAx val="247429032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3673,11 +3676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242166696"/>
-        <c:axId val="242163560"/>
+        <c:axId val="247430600"/>
+        <c:axId val="247430992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242166696"/>
+        <c:axId val="247430600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,12 +3737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242163560"/>
+        <c:crossAx val="247430992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242163560"/>
+        <c:axId val="247430992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,7 +3799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242166696"/>
+        <c:crossAx val="247430600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4058,11 +4061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280771848"/>
-        <c:axId val="280773024"/>
+        <c:axId val="247427856"/>
+        <c:axId val="249196176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280771848"/>
+        <c:axId val="247427856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,12 +4122,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280773024"/>
+        <c:crossAx val="249196176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280773024"/>
+        <c:axId val="249196176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,7 +4184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280771848"/>
+        <c:crossAx val="247427856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13236,8 +13239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W108"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17417,7 +17420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Phenoloxidase Activity data/Data for 150 samples/12. Phenoloxidase 08-08-24 (HEG 32 - 38).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/12. Phenoloxidase 08-08-24 (HEG 32 - 38).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -969,11 +969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248982776"/>
-        <c:axId val="247814752"/>
+        <c:axId val="252900360"/>
+        <c:axId val="252073328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248982776"/>
+        <c:axId val="252900360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,12 +1030,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247814752"/>
+        <c:crossAx val="252073328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247814752"/>
+        <c:axId val="252073328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248982776"/>
+        <c:crossAx val="252900360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1356,11 +1356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248059272"/>
-        <c:axId val="248059656"/>
+        <c:axId val="252656504"/>
+        <c:axId val="252682360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248059272"/>
+        <c:axId val="252656504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,12 +1417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248059656"/>
+        <c:crossAx val="252682360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248059656"/>
+        <c:axId val="252682360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248059272"/>
+        <c:crossAx val="252656504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1543,6 +1543,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1617,6 +1618,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1741,11 +1743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248450512"/>
-        <c:axId val="248450896"/>
+        <c:axId val="252713536"/>
+        <c:axId val="252734032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248450512"/>
+        <c:axId val="252713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,12 +1804,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248450896"/>
+        <c:crossAx val="252734032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248450896"/>
+        <c:axId val="252734032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248450512"/>
+        <c:crossAx val="252713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1928,6 +1930,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2132,11 +2135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248523336"/>
-        <c:axId val="248523720"/>
+        <c:axId val="252769656"/>
+        <c:axId val="252770040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248523336"/>
+        <c:axId val="252769656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,12 +2196,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248523720"/>
+        <c:crossAx val="252770040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248523720"/>
+        <c:axId val="252770040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248523336"/>
+        <c:crossAx val="252769656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2319,6 +2322,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2393,6 +2397,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2517,11 +2522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248553920"/>
-        <c:axId val="248554304"/>
+        <c:axId val="252853736"/>
+        <c:axId val="252863344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248553920"/>
+        <c:axId val="252853736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,12 +2583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248554304"/>
+        <c:crossAx val="252863344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248554304"/>
+        <c:axId val="252863344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248553920"/>
+        <c:crossAx val="252853736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2704,6 +2709,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2778,6 +2784,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2916,11 +2923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247429424"/>
-        <c:axId val="247428640"/>
+        <c:axId val="251653392"/>
+        <c:axId val="251650648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247429424"/>
+        <c:axId val="251653392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,12 +2984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247428640"/>
+        <c:crossAx val="251650648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247428640"/>
+        <c:axId val="251650648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247429424"/>
+        <c:crossAx val="251653392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3103,6 +3110,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3321,11 +3329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247429032"/>
-        <c:axId val="247429816"/>
+        <c:axId val="251650256"/>
+        <c:axId val="251651824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247429032"/>
+        <c:axId val="251650256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,12 +3390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247429816"/>
+        <c:crossAx val="251651824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247429816"/>
+        <c:axId val="251651824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247429032"/>
+        <c:crossAx val="251650256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3676,11 +3684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247430600"/>
-        <c:axId val="247430992"/>
+        <c:axId val="251651432"/>
+        <c:axId val="251652216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247430600"/>
+        <c:axId val="251651432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3737,12 +3745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247430992"/>
+        <c:crossAx val="251652216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247430992"/>
+        <c:axId val="251652216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,7 +3807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247430600"/>
+        <c:crossAx val="251651432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4061,11 +4069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247427856"/>
-        <c:axId val="249196176"/>
+        <c:axId val="251653000"/>
+        <c:axId val="253466520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247427856"/>
+        <c:axId val="251653000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4122,12 +4130,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249196176"/>
+        <c:crossAx val="253466520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249196176"/>
+        <c:axId val="253466520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247427856"/>
+        <c:crossAx val="251653000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9782,8 +9790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13239,8 +13247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17420,8 +17428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="M26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
